--- a/IND_Player_Data.xlsx
+++ b/IND_Player_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\Machine_Deep_Learning\Cricket_Scout\Team_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Misc\Machine_Deep_Learning\Cricket_Scout\main\MatchConRep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -422,9 +422,6 @@
     <t>Thangarasu Natarajan</t>
   </si>
   <si>
-    <t>27/05/1991</t>
-  </si>
-  <si>
     <t>2020-</t>
   </si>
   <si>
@@ -623,9 +620,6 @@
     <t>Shahbaz Ahmed</t>
   </si>
   <si>
-    <t>11/12/1994</t>
-  </si>
-  <si>
     <t>0*</t>
   </si>
   <si>
@@ -725,9 +719,6 @@
     <t>Umran Malik</t>
   </si>
   <si>
-    <t>22/11/1999</t>
-  </si>
-  <si>
     <t>3/57</t>
   </si>
   <si>
@@ -780,6 +771,15 @@
   </si>
   <si>
     <t>Total Players = 49</t>
+  </si>
+  <si>
+    <t>04/04/1991</t>
+  </si>
+  <si>
+    <t>12/12/1994</t>
+  </si>
+  <si>
+    <t>22/11/1989</t>
   </si>
 </sst>
 </file>
@@ -2156,10 +2156,10 @@
         <v>126</v>
       </c>
       <c r="C23" t="s">
+        <v>244</v>
+      </c>
+      <c r="D23" t="s">
         <v>127</v>
-      </c>
-      <c r="D23" t="s">
-        <v>128</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -2192,21 +2192,21 @@
         <v>7.15</v>
       </c>
       <c r="O23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B24" t="s">
         <v>130</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>131</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>132</v>
-      </c>
-      <c r="D24" t="s">
-        <v>133</v>
       </c>
       <c r="E24">
         <v>29</v>
@@ -2241,13 +2241,13 @@
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" t="s">
         <v>134</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>135</v>
-      </c>
-      <c r="C25" t="s">
-        <v>136</v>
       </c>
       <c r="D25" t="s">
         <v>35</v>
@@ -2283,18 +2283,18 @@
         <v>5.55</v>
       </c>
       <c r="O25" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>137</v>
+      </c>
+      <c r="B26" t="s">
         <v>138</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>139</v>
-      </c>
-      <c r="C26" t="s">
-        <v>140</v>
       </c>
       <c r="D26" t="s">
         <v>50</v>
@@ -2330,18 +2330,18 @@
         <v>5.87</v>
       </c>
       <c r="O26" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>141</v>
+      </c>
+      <c r="B27" t="s">
         <v>142</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>143</v>
-      </c>
-      <c r="C27" t="s">
-        <v>144</v>
       </c>
       <c r="D27" t="s">
         <v>45</v>
@@ -2379,16 +2379,16 @@
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B28" t="s">
         <v>145</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>146</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>147</v>
-      </c>
-      <c r="D28" t="s">
-        <v>148</v>
       </c>
       <c r="E28">
         <v>57</v>
@@ -2421,18 +2421,18 @@
         <v>4.54</v>
       </c>
       <c r="O28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" t="s">
         <v>150</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>151</v>
-      </c>
-      <c r="C29" t="s">
-        <v>152</v>
       </c>
       <c r="D29" t="s">
         <v>111</v>
@@ -2470,13 +2470,13 @@
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" t="s">
         <v>153</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>154</v>
-      </c>
-      <c r="C30" t="s">
-        <v>155</v>
       </c>
       <c r="D30" t="s">
         <v>50</v>
@@ -2512,18 +2512,18 @@
         <v>5.61</v>
       </c>
       <c r="O30" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>156</v>
+      </c>
+      <c r="B31" t="s">
         <v>157</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>158</v>
-      </c>
-      <c r="C31" t="s">
-        <v>159</v>
       </c>
       <c r="D31" t="s">
         <v>35</v>
@@ -2541,7 +2541,7 @@
         <v>7</v>
       </c>
       <c r="I31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="J31">
         <v>50.36</v>
@@ -2561,13 +2561,13 @@
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>160</v>
+      </c>
+      <c r="B32" t="s">
         <v>161</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>162</v>
-      </c>
-      <c r="C32" t="s">
-        <v>163</v>
       </c>
       <c r="D32" t="s">
         <v>50</v>
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="J32">
         <v>7</v>
@@ -2603,18 +2603,18 @@
         <v>3.33</v>
       </c>
       <c r="O32" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>165</v>
+      </c>
+      <c r="B33" t="s">
         <v>166</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>167</v>
-      </c>
-      <c r="C33" t="s">
-        <v>168</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -2650,18 +2650,18 @@
         <v>8.6300000000000008</v>
       </c>
       <c r="O33" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B34" t="s">
         <v>170</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>171</v>
-      </c>
-      <c r="C34" t="s">
-        <v>172</v>
       </c>
       <c r="D34" t="s">
         <v>111</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="J34">
         <v>63.5</v>
@@ -2697,18 +2697,18 @@
         <v>16</v>
       </c>
       <c r="O34" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B35" t="s">
         <v>175</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>176</v>
-      </c>
-      <c r="C35" t="s">
-        <v>177</v>
       </c>
       <c r="D35" t="s">
         <v>123</v>
@@ -2726,7 +2726,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="J35">
         <v>53.5</v>
@@ -2744,18 +2744,18 @@
         <v>6.87</v>
       </c>
       <c r="O35" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>179</v>
+      </c>
+      <c r="B36" t="s">
         <v>180</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>181</v>
-      </c>
-      <c r="C36" t="s">
-        <v>182</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
@@ -2791,18 +2791,18 @@
         <v>4.25</v>
       </c>
       <c r="O36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>183</v>
+      </c>
+      <c r="B37" t="s">
         <v>184</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
         <v>185</v>
-      </c>
-      <c r="C37" t="s">
-        <v>186</v>
       </c>
       <c r="D37" t="s">
         <v>50</v>
@@ -2820,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="I37" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J37">
         <v>56.67</v>
@@ -2840,13 +2840,13 @@
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B38" t="s">
         <v>188</v>
       </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>189</v>
-      </c>
-      <c r="C38" t="s">
-        <v>190</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
@@ -2882,18 +2882,18 @@
         <v>7.4</v>
       </c>
       <c r="O38" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>191</v>
+      </c>
+      <c r="B39" t="s">
         <v>192</v>
       </c>
-      <c r="B39" t="s">
-        <v>193</v>
-      </c>
       <c r="C39" t="s">
-        <v>194</v>
+        <v>245</v>
       </c>
       <c r="D39" t="s">
         <v>18</v>
@@ -2911,7 +2911,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J39">
         <v>0</v>
@@ -2929,21 +2929,21 @@
         <v>4.8099999999999996</v>
       </c>
       <c r="O39" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" t="s">
         <v>197</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>198</v>
-      </c>
-      <c r="C40" t="s">
-        <v>199</v>
-      </c>
-      <c r="D40" t="s">
-        <v>200</v>
       </c>
       <c r="E40">
         <v>262</v>
@@ -2958,7 +2958,7 @@
         <v>31</v>
       </c>
       <c r="I40" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="J40">
         <v>49.12</v>
@@ -2976,21 +2976,21 @@
         <v>5.24</v>
       </c>
       <c r="O40" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B41" t="s">
+        <v>202</v>
+      </c>
+      <c r="C41" t="s">
         <v>203</v>
       </c>
-      <c r="B41" t="s">
-        <v>204</v>
-      </c>
-      <c r="C41" t="s">
-        <v>205</v>
-      </c>
       <c r="D41" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E41">
         <v>6</v>
@@ -3005,7 +3005,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J41">
         <v>31.5</v>
@@ -3025,13 +3025,13 @@
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>205</v>
+      </c>
+      <c r="B42" t="s">
+        <v>206</v>
+      </c>
+      <c r="C42" t="s">
         <v>207</v>
-      </c>
-      <c r="B42" t="s">
-        <v>208</v>
-      </c>
-      <c r="C42" t="s">
-        <v>209</v>
       </c>
       <c r="D42" t="s">
         <v>123</v>
@@ -3049,7 +3049,7 @@
         <v>6</v>
       </c>
       <c r="I42" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="J42">
         <v>61.38</v>
@@ -3067,18 +3067,18 @@
         <v>5.5</v>
       </c>
       <c r="O42" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
+        <v>210</v>
+      </c>
+      <c r="B43" t="s">
+        <v>211</v>
+      </c>
+      <c r="C43" t="s">
         <v>212</v>
-      </c>
-      <c r="B43" t="s">
-        <v>213</v>
-      </c>
-      <c r="C43" t="s">
-        <v>214</v>
       </c>
       <c r="D43" t="s">
         <v>111</v>
@@ -3096,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="J43">
         <v>27.5</v>
@@ -3114,18 +3114,18 @@
         <v>2</v>
       </c>
       <c r="O43" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
+        <v>215</v>
+      </c>
+      <c r="B44" t="s">
+        <v>216</v>
+      </c>
+      <c r="C44" t="s">
         <v>217</v>
-      </c>
-      <c r="B44" t="s">
-        <v>218</v>
-      </c>
-      <c r="C44" t="s">
-        <v>219</v>
       </c>
       <c r="D44" t="s">
         <v>79</v>
@@ -3161,18 +3161,18 @@
         <v>6.23</v>
       </c>
       <c r="O44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
+        <v>219</v>
+      </c>
+      <c r="B45" t="s">
+        <v>220</v>
+      </c>
+      <c r="C45" t="s">
         <v>221</v>
-      </c>
-      <c r="B45" t="s">
-        <v>222</v>
-      </c>
-      <c r="C45" t="s">
-        <v>223</v>
       </c>
       <c r="D45" t="s">
         <v>111</v>
@@ -3190,7 +3190,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J45">
         <v>22.67</v>
@@ -3208,18 +3208,18 @@
         <v>5.57</v>
       </c>
       <c r="O45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C46" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="D46" t="s">
         <v>18</v>
@@ -3255,18 +3255,18 @@
         <v>6.54</v>
       </c>
       <c r="O46" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B47" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C47" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D47" t="s">
         <v>117</v>
@@ -3284,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -3302,18 +3302,18 @@
         <v>3.95</v>
       </c>
       <c r="O47" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B48" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C48" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D48" t="s">
         <v>79</v>
@@ -3331,7 +3331,7 @@
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="J48">
         <v>26.5</v>
@@ -3354,13 +3354,13 @@
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B49" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C49" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D49" t="s">
         <v>35</v>
@@ -3396,18 +3396,18 @@
         <v>4.3600000000000003</v>
       </c>
       <c r="O49" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B50" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C50" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D50" t="s">
         <v>50</v>
@@ -3443,12 +3443,12 @@
         <v>8.5</v>
       </c>
       <c r="O50" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>

--- a/IND_Player_Data.xlsx
+++ b/IND_Player_Data.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="PlayerCountryList.asp?Country_IND_Comp_O_Current_T" localSheetId="0">Sheet1!$A$1:$P$51</definedName>
+    <definedName name="PlayerCountryList.asp?Country_IND_Comp_O_Current_T" localSheetId="0">Sheet1!$A$1:$P$50</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="243">
   <si>
     <t>Name</t>
   </si>
@@ -416,18 +416,9 @@
     <t>6/21</t>
   </si>
   <si>
-    <t>T Natarajan*</t>
-  </si>
-  <si>
-    <t>Thangarasu Natarajan</t>
-  </si>
-  <si>
     <t>2020-</t>
   </si>
   <si>
-    <t>2/70</t>
-  </si>
-  <si>
     <t>M K Pandey*</t>
   </si>
   <si>
@@ -770,16 +761,13 @@
     <t>0/17</t>
   </si>
   <si>
-    <t>Total Players = 49</t>
-  </si>
-  <si>
-    <t>04/04/1991</t>
-  </si>
-  <si>
     <t>12/12/1994</t>
   </si>
   <si>
     <t>22/11/1989</t>
+  </si>
+  <si>
+    <t>Total Players = 48</t>
   </si>
 </sst>
 </file>
@@ -1101,14 +1089,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O51"/>
+  <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.42578125" bestFit="1" customWidth="1"/>
@@ -2150,187 +2138,184 @@
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C23" t="s">
-        <v>244</v>
+        <v>128</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="F23">
+        <v>24</v>
+      </c>
+      <c r="G23">
+        <v>566</v>
+      </c>
+      <c r="H23">
         <v>1</v>
       </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
       <c r="I23">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>33.29</v>
       </c>
       <c r="K23">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-      <c r="M23">
-        <v>47.67</v>
-      </c>
-      <c r="N23">
-        <v>7.15</v>
-      </c>
-      <c r="O23" t="s">
-        <v>128</v>
+      <c r="M23" t="s">
+        <v>57</v>
+      </c>
+      <c r="N23" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B24" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D24" t="s">
-        <v>132</v>
+        <v>35</v>
       </c>
       <c r="E24">
-        <v>29</v>
+        <v>86</v>
       </c>
       <c r="F24">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="G24">
-        <v>566</v>
+        <v>1769</v>
       </c>
       <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>92</v>
+      </c>
+      <c r="J24">
+        <v>34.020000000000003</v>
+      </c>
+      <c r="K24">
+        <v>84</v>
+      </c>
+      <c r="L24">
         <v>1</v>
       </c>
-      <c r="I24">
-        <v>104</v>
-      </c>
-      <c r="J24">
-        <v>33.29</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" t="s">
-        <v>57</v>
-      </c>
-      <c r="N24" t="s">
-        <v>57</v>
+      <c r="M24">
+        <v>35.24</v>
+      </c>
+      <c r="N24">
+        <v>5.55</v>
+      </c>
+      <c r="O24" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D25" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E25">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="F25">
-        <v>61</v>
+        <v>4</v>
       </c>
       <c r="G25">
-        <v>1769</v>
+        <v>130</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="J25">
-        <v>34.020000000000003</v>
+        <v>65</v>
       </c>
       <c r="K25">
-        <v>84</v>
+        <v>2</v>
       </c>
       <c r="L25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>35.24</v>
+        <v>111.5</v>
       </c>
       <c r="N25">
-        <v>5.55</v>
+        <v>5.87</v>
       </c>
       <c r="O25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C26" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="F26">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="G26">
-        <v>130</v>
+        <v>865</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="J26">
-        <v>65</v>
+        <v>34.6</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26">
         <v>0</v>
       </c>
-      <c r="M26">
-        <v>111.5</v>
-      </c>
-      <c r="N26">
-        <v>5.87</v>
-      </c>
-      <c r="O26" t="s">
-        <v>140</v>
+      <c r="M26" t="s">
+        <v>57</v>
+      </c>
+      <c r="N26" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -2344,84 +2329,84 @@
         <v>143</v>
       </c>
       <c r="D27" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="E27">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="F27">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G27">
-        <v>865</v>
+        <v>489</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27">
-        <v>125</v>
+        <v>64</v>
       </c>
       <c r="J27">
-        <v>34.6</v>
+        <v>18.809999999999999</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
-      <c r="M27" t="s">
-        <v>57</v>
-      </c>
-      <c r="N27" t="s">
-        <v>57</v>
+      <c r="M27">
+        <v>32.869999999999997</v>
+      </c>
+      <c r="N27">
+        <v>4.54</v>
+      </c>
+      <c r="O27" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B28" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D28" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>22</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28" t="s">
+        <v>84</v>
+      </c>
+      <c r="J28">
+        <v>22</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
         <v>57</v>
       </c>
-      <c r="F28">
-        <v>36</v>
-      </c>
-      <c r="G28">
-        <v>489</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>64</v>
-      </c>
-      <c r="J28">
-        <v>18.809999999999999</v>
-      </c>
-      <c r="K28">
-        <v>60</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>32.869999999999997</v>
-      </c>
-      <c r="N28">
-        <v>4.54</v>
-      </c>
-      <c r="O28" t="s">
-        <v>148</v>
+      <c r="N28" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -2435,116 +2420,116 @@
         <v>151</v>
       </c>
       <c r="D29" t="s">
-        <v>111</v>
+        <v>50</v>
       </c>
       <c r="E29">
+        <v>17</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29">
+        <v>2</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>2</v>
+      </c>
+      <c r="J29">
         <v>1</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>22</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29" t="s">
-        <v>84</v>
-      </c>
-      <c r="J29">
-        <v>22</v>
-      </c>
       <c r="K29">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29" t="s">
-        <v>57</v>
-      </c>
-      <c r="N29" t="s">
-        <v>57</v>
+        <v>2</v>
+      </c>
+      <c r="M29">
+        <v>25.59</v>
+      </c>
+      <c r="N29">
+        <v>5.61</v>
+      </c>
+      <c r="O29" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D30" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E30">
-        <v>17</v>
+        <v>75</v>
       </c>
       <c r="F30">
+        <v>70</v>
+      </c>
+      <c r="G30">
+        <v>2820</v>
+      </c>
+      <c r="H30">
         <v>7</v>
       </c>
-      <c r="G30">
-        <v>2</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>2</v>
+      <c r="I30" t="s">
+        <v>156</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>50.36</v>
       </c>
       <c r="K30">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="L30">
-        <v>2</v>
-      </c>
-      <c r="M30">
-        <v>25.59</v>
-      </c>
-      <c r="N30">
-        <v>5.61</v>
-      </c>
-      <c r="O30" t="s">
-        <v>155</v>
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>57</v>
+      </c>
+      <c r="N30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B31" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D31" t="s">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="E31">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="G31">
-        <v>2820</v>
+        <v>7</v>
       </c>
       <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31" t="s">
+        <v>160</v>
+      </c>
+      <c r="J31">
         <v>7</v>
-      </c>
-      <c r="I31" t="s">
-        <v>159</v>
-      </c>
-      <c r="J31">
-        <v>50.36</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2555,22 +2540,25 @@
       <c r="M31" t="s">
         <v>57</v>
       </c>
-      <c r="N31" t="s">
-        <v>57</v>
+      <c r="N31">
+        <v>3.33</v>
+      </c>
+      <c r="O31" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D32" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -2579,436 +2567,433 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="H32">
         <v>0</v>
       </c>
-      <c r="I32" t="s">
-        <v>163</v>
+      <c r="I32">
+        <v>4</v>
       </c>
       <c r="J32">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
-      <c r="M32" t="s">
-        <v>57</v>
+      <c r="M32">
+        <v>69</v>
       </c>
       <c r="N32">
-        <v>3.33</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="O32" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B33" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C33" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D33" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G33">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="H33">
         <v>0</v>
       </c>
-      <c r="I33">
-        <v>4</v>
+      <c r="I33" t="s">
+        <v>169</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>63.5</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L33">
         <v>0</v>
       </c>
-      <c r="M33">
-        <v>69</v>
+      <c r="M33" t="s">
+        <v>57</v>
       </c>
       <c r="N33">
-        <v>8.6300000000000008</v>
+        <v>16</v>
       </c>
       <c r="O33" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D34" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="E34">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G34">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="H34">
         <v>0</v>
       </c>
       <c r="I34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="J34">
-        <v>63.5</v>
+        <v>53.5</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
-      <c r="M34" t="s">
-        <v>57</v>
+      <c r="M34">
+        <v>80.17</v>
       </c>
       <c r="N34">
-        <v>16</v>
+        <v>6.87</v>
       </c>
       <c r="O34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B35" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D35" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="G35">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H35">
         <v>0</v>
       </c>
-      <c r="I35" t="s">
-        <v>177</v>
+      <c r="I35">
+        <v>0</v>
       </c>
       <c r="J35">
-        <v>53.5</v>
+        <v>0</v>
       </c>
       <c r="K35">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>80.17</v>
+        <v>17</v>
       </c>
       <c r="N35">
-        <v>6.87</v>
+        <v>4.25</v>
       </c>
       <c r="O35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B36" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C36" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D36" t="s">
         <v>50</v>
       </c>
       <c r="E36">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>14</v>
+      </c>
+      <c r="G36">
+        <v>510</v>
+      </c>
+      <c r="H36">
         <v>1</v>
       </c>
-      <c r="F36">
-        <v>1</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
+      <c r="I36" t="s">
+        <v>183</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>56.67</v>
       </c>
       <c r="K36">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L36">
         <v>0</v>
       </c>
-      <c r="M36">
-        <v>17</v>
-      </c>
-      <c r="N36">
-        <v>4.25</v>
-      </c>
-      <c r="O36" t="s">
-        <v>182</v>
+      <c r="M36" t="s">
+        <v>57</v>
+      </c>
+      <c r="N36" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="E37">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F37">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="G37">
-        <v>510</v>
+        <v>2</v>
       </c>
       <c r="H37">
-        <v>1</v>
-      </c>
-      <c r="I37" t="s">
-        <v>186</v>
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
       </c>
       <c r="J37">
-        <v>56.67</v>
+        <v>0</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>0</v>
       </c>
-      <c r="M37" t="s">
-        <v>57</v>
-      </c>
-      <c r="N37" t="s">
-        <v>57</v>
+      <c r="M37">
+        <v>18.5</v>
+      </c>
+      <c r="N37">
+        <v>7.4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B38" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C38" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="D38" t="s">
         <v>18</v>
       </c>
       <c r="E38">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38">
         <v>1</v>
       </c>
       <c r="G38">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H38">
         <v>0</v>
       </c>
-      <c r="I38">
-        <v>2</v>
+      <c r="I38" t="s">
+        <v>190</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L38">
         <v>0</v>
       </c>
       <c r="M38">
-        <v>18.5</v>
+        <v>41.67</v>
       </c>
       <c r="N38">
-        <v>7.4</v>
+        <v>4.8099999999999996</v>
       </c>
       <c r="O38" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C39" t="s">
-        <v>245</v>
+        <v>194</v>
       </c>
       <c r="D39" t="s">
-        <v>18</v>
+        <v>195</v>
       </c>
       <c r="E39">
-        <v>3</v>
+        <v>262</v>
       </c>
       <c r="F39">
-        <v>1</v>
+        <v>254</v>
       </c>
       <c r="G39">
-        <v>0</v>
+        <v>10709</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="I39" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>49.12</v>
       </c>
       <c r="K39">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>41.67</v>
+        <v>58</v>
       </c>
       <c r="N39">
-        <v>4.8099999999999996</v>
+        <v>5.24</v>
       </c>
       <c r="O39" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D40" t="s">
-        <v>198</v>
+        <v>125</v>
       </c>
       <c r="E40">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="F40">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="G40">
-        <v>10709</v>
+        <v>189</v>
       </c>
       <c r="H40">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="I40" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="J40">
-        <v>49.12</v>
+        <v>31.5</v>
       </c>
       <c r="K40">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="L40">
         <v>0</v>
       </c>
-      <c r="M40">
-        <v>58</v>
-      </c>
-      <c r="N40">
-        <v>5.24</v>
-      </c>
-      <c r="O40" t="s">
-        <v>200</v>
+      <c r="M40" t="s">
+        <v>57</v>
+      </c>
+      <c r="N40" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B41" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C41" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E41">
+        <v>44</v>
+      </c>
+      <c r="F41">
+        <v>44</v>
+      </c>
+      <c r="G41">
+        <v>2271</v>
+      </c>
+      <c r="H41">
         <v>6</v>
       </c>
-      <c r="F41">
-        <v>6</v>
-      </c>
-      <c r="G41">
-        <v>189</v>
-      </c>
-      <c r="H41">
-        <v>0</v>
-      </c>
       <c r="I41" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="J41">
-        <v>31.5</v>
+        <v>61.38</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -3019,193 +3004,196 @@
       <c r="M41" t="s">
         <v>57</v>
       </c>
-      <c r="N41" t="s">
-        <v>57</v>
+      <c r="N41">
+        <v>5.5</v>
+      </c>
+      <c r="O41" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B42" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C42" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D42" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="E42">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="F42">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="G42">
-        <v>2271</v>
+        <v>55</v>
       </c>
       <c r="H42">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="J42">
-        <v>61.38</v>
+        <v>27.5</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>0</v>
       </c>
-      <c r="M42" t="s">
-        <v>57</v>
+      <c r="M42">
+        <v>2</v>
       </c>
       <c r="N42">
-        <v>5.5</v>
+        <v>2</v>
       </c>
       <c r="O42" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B43" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C43" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D43" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="E43">
-        <v>2</v>
+        <v>47</v>
       </c>
       <c r="F43">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="G43">
-        <v>55</v>
+        <v>329</v>
       </c>
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" t="s">
-        <v>213</v>
+      <c r="I43">
+        <v>50</v>
       </c>
       <c r="J43">
-        <v>27.5</v>
+        <v>17.32</v>
       </c>
       <c r="K43">
-        <v>1</v>
+        <v>65</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M43">
-        <v>2</v>
+        <v>30.98</v>
       </c>
       <c r="N43">
-        <v>2</v>
+        <v>6.23</v>
       </c>
       <c r="O43" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B44" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C44" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D44" t="s">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="E44">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="F44">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G44">
-        <v>329</v>
+        <v>68</v>
       </c>
       <c r="H44">
         <v>0</v>
       </c>
-      <c r="I44">
-        <v>50</v>
+      <c r="I44" t="s">
+        <v>219</v>
       </c>
       <c r="J44">
-        <v>17.32</v>
+        <v>22.67</v>
       </c>
       <c r="K44">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="L44">
-        <v>3</v>
-      </c>
-      <c r="M44">
-        <v>30.98</v>
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>57</v>
       </c>
       <c r="N44">
-        <v>6.23</v>
+        <v>5.57</v>
       </c>
       <c r="O44" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="B45" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C45" t="s">
-        <v>221</v>
+        <v>241</v>
       </c>
       <c r="D45" t="s">
-        <v>111</v>
+        <v>18</v>
       </c>
       <c r="E45">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F45">
         <v>4</v>
       </c>
       <c r="G45">
-        <v>68</v>
+        <v>2</v>
       </c>
       <c r="H45">
         <v>0</v>
       </c>
-      <c r="I45" t="s">
-        <v>222</v>
+      <c r="I45">
+        <v>2</v>
       </c>
       <c r="J45">
-        <v>22.67</v>
+        <v>2</v>
       </c>
       <c r="K45">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L45">
         <v>0</v>
       </c>
-      <c r="M45" t="s">
-        <v>57</v>
+      <c r="M45">
+        <v>30.69</v>
       </c>
       <c r="N45">
-        <v>5.57</v>
+        <v>6.54</v>
       </c>
       <c r="O45" t="s">
         <v>223</v>
@@ -3219,236 +3207,189 @@
         <v>225</v>
       </c>
       <c r="C46" t="s">
-        <v>246</v>
+        <v>226</v>
       </c>
       <c r="D46" t="s">
-        <v>18</v>
+        <v>117</v>
       </c>
       <c r="E46">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F46">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H46">
         <v>0</v>
       </c>
-      <c r="I46">
-        <v>2</v>
+      <c r="I46" t="s">
+        <v>190</v>
       </c>
       <c r="J46">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
-        <v>30.69</v>
+        <v>25</v>
       </c>
       <c r="N46">
-        <v>6.54</v>
+        <v>3.95</v>
       </c>
       <c r="O46" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B47" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C47" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="E47">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F47">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G47">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="H47">
         <v>0</v>
       </c>
       <c r="I47" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="K47">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="L47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M47">
-        <v>25</v>
+        <v>28.94</v>
       </c>
       <c r="N47">
-        <v>3.95</v>
+        <v>4.92</v>
       </c>
       <c r="O47" t="s">
-        <v>230</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B48" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C48" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>35</v>
       </c>
       <c r="E48">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="F48">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G48">
-        <v>265</v>
+        <v>3</v>
       </c>
       <c r="H48">
         <v>0</v>
       </c>
       <c r="I48" t="s">
-        <v>234</v>
+        <v>65</v>
       </c>
       <c r="J48">
-        <v>26.5</v>
+        <v>3</v>
       </c>
       <c r="K48">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="L48">
         <v>0</v>
       </c>
       <c r="M48">
-        <v>28.94</v>
+        <v>61</v>
       </c>
       <c r="N48">
-        <v>4.92</v>
+        <v>4.3600000000000003</v>
       </c>
       <c r="O48" t="s">
-        <v>113</v>
+        <v>235</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B49" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C49" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D49" t="s">
+        <v>50</v>
+      </c>
+      <c r="E49">
+        <v>37</v>
+      </c>
+      <c r="F49">
         <v>35</v>
       </c>
-      <c r="E49">
-        <v>2</v>
-      </c>
-      <c r="F49">
-        <v>2</v>
-      </c>
       <c r="G49">
-        <v>3</v>
+        <v>773</v>
       </c>
       <c r="H49">
         <v>0</v>
       </c>
-      <c r="I49" t="s">
-        <v>65</v>
+      <c r="I49">
+        <v>72</v>
       </c>
       <c r="J49">
-        <v>3</v>
+        <v>25.77</v>
       </c>
       <c r="K49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L49">
         <v>0</v>
       </c>
-      <c r="M49">
-        <v>61</v>
+      <c r="M49" t="s">
+        <v>57</v>
       </c>
       <c r="N49">
-        <v>4.3600000000000003</v>
+        <v>8.5</v>
       </c>
       <c r="O49" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>239</v>
-      </c>
-      <c r="B50" t="s">
-        <v>240</v>
-      </c>
-      <c r="C50" t="s">
-        <v>241</v>
-      </c>
-      <c r="D50" t="s">
-        <v>50</v>
-      </c>
-      <c r="E50">
-        <v>37</v>
-      </c>
-      <c r="F50">
-        <v>35</v>
-      </c>
-      <c r="G50">
-        <v>773</v>
-      </c>
-      <c r="H50">
-        <v>0</v>
-      </c>
-      <c r="I50">
-        <v>72</v>
-      </c>
-      <c r="J50">
-        <v>25.77</v>
-      </c>
-      <c r="K50">
-        <v>0</v>
-      </c>
-      <c r="L50">
-        <v>0</v>
-      </c>
-      <c r="M50" t="s">
-        <v>57</v>
-      </c>
-      <c r="N50">
-        <v>8.5</v>
-      </c>
-      <c r="O50" t="s">
         <v>242</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>243</v>
       </c>
     </row>
   </sheetData>
